--- a/BIM_Study_Materials/3rd Sem/Business Statistics/Lab Work/Main.xlsx
+++ b/BIM_Study_Materials/3rd Sem/Business Statistics/Lab Work/Main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pritishmashakya/Documents/GitHub/College Works/BIM_Study_Materials/3rd Sem/Business Statistics/Lab Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D06BE67-C62F-294C-8C0C-8A3CFAB3F0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87299D48-63CC-5049-BB12-0EDD6BC2837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -597,10 +597,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -690,7 +691,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -6034,7 +6035,7 @@
   <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6681,7 +6682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -7211,10 +7212,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7223,9 +7224,11 @@
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>129</v>
       </c>
@@ -7236,7 +7239,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>132</v>
       </c>
@@ -7253,7 +7256,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>88</v>
       </c>
@@ -7270,8 +7273,12 @@
         <f>_xlfn.BINOM.DIST(F4,$D$4,$D$5,FALSE)</f>
         <v>4.0959999999999933E-9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="13">
+        <f>_xlfn.BINOM.DIST(F4,$D$4,$D$5,FALSE)</f>
+        <v>4.0959999999999933E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>134</v>
       </c>
@@ -7288,8 +7295,12 @@
         <f t="shared" ref="G5:G16" si="0">_xlfn.BINOM.DIST(F5,$D$4,$D$5,FALSE)</f>
         <v>1.9660799999999993E-7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="13">
+        <f t="shared" ref="H5:H16" si="1">_xlfn.BINOM.DIST(F5,$D$4,$D$5,FALSE)</f>
+        <v>1.9660799999999993E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F6">
         <v>2</v>
       </c>
@@ -7297,8 +7308,12 @@
         <f t="shared" si="0"/>
         <v>4.3253759999999791E-6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>4.3253759999999791E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -7316,8 +7331,12 @@
         <f t="shared" si="0"/>
         <v>5.7671679999999842E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>5.7671679999999842E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F8">
         <v>4</v>
       </c>
@@ -7325,8 +7344,12 @@
         <f t="shared" si="0"/>
         <v>5.1904511999999951E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>5.1904511999999951E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -7344,8 +7367,12 @@
         <f t="shared" si="0"/>
         <v>3.3218887679999937E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>3.3218887679999937E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F10">
         <v>6</v>
       </c>
@@ -7353,8 +7380,13 @@
         <f t="shared" si="0"/>
         <v>1.550214758399999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1.550214758399999E-2</v>
+      </c>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -7372,8 +7404,12 @@
         <f t="shared" si="0"/>
         <v>5.3150220287999962E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>5.3150220287999962E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F12">
         <v>8</v>
       </c>
@@ -7381,8 +7417,12 @@
         <f t="shared" si="0"/>
         <v>0.13287555071999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0.13287555071999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -7400,8 +7440,12 @@
         <f t="shared" si="0"/>
         <v>0.23622320127999991</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0.23622320127999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F14">
         <v>10</v>
       </c>
@@ -7409,8 +7453,12 @@
         <f t="shared" si="0"/>
         <v>0.28346784153600002</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0.28346784153600002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>11</v>
       </c>
@@ -7418,8 +7466,12 @@
         <f t="shared" si="0"/>
         <v>0.20615843020800007</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <f>_xlfn.BINOM.DIST(F15,$D$4,$D$5,FALSE)</f>
+        <v>0.20615843020800007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F16">
         <v>12</v>
       </c>
@@ -7427,6 +7479,13 @@
         <f t="shared" si="0"/>
         <v>6.871947673600004E-2</v>
       </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>6.871947673600004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7542,7 +7601,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7781,8 +7840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7891,8 +7950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8538,7 +8597,7 @@
   <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9353,7 +9412,7 @@
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="4">
@@ -9364,7 +9423,7 @@
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5">
         <v>12</v>
       </c>
       <c r="C5" s="4">
@@ -9375,7 +9434,7 @@
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6">
         <v>10</v>
       </c>
       <c r="C6" s="4">
@@ -9386,7 +9445,7 @@
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7">
         <v>19</v>
       </c>
       <c r="C7" s="4">
@@ -9397,7 +9456,7 @@
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8">
         <v>16</v>
       </c>
       <c r="C8" s="4">
@@ -9408,7 +9467,7 @@
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9">
         <v>9</v>
       </c>
       <c r="C9" s="4">
@@ -9419,7 +9478,7 @@
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" s="4">
@@ -9430,7 +9489,7 @@
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" s="4">
@@ -9441,7 +9500,7 @@
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12">
         <v>80</v>
       </c>
       <c r="C12" s="4">
@@ -10192,7 +10251,7 @@
   <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
